--- a/data/trans_bre/P16B07-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16B07-Provincia-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16B07-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16B07-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -604,7 +604,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -619,17 +619,17 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>-5,0%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,37; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,37; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -694,22 +694,22 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,94</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,94%</t>
         </is>
       </c>
     </row>
@@ -732,7 +732,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,15; 0,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -747,7 +747,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,15; 0,0</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,46</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -779,17 +779,17 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,46%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -802,7 +802,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,51; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -817,7 +817,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,51; 0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -849,7 +849,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,94</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -859,17 +859,17 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,94%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -887,7 +887,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,65; 0,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -902,7 +902,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,65; 0,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -924,7 +924,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,22</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -939,17 +939,17 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,22%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -962,7 +962,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,81; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,81; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1009,27 +1009,27 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,44</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,99</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,44%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,99%</t>
         </is>
       </c>
     </row>
@@ -1047,12 +1047,12 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,38; 0,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,67; 0,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1062,12 +1062,12 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,38; 0,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,67; 0,0</t>
         </is>
       </c>
     </row>
@@ -1099,17 +1099,17 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1179,17 +1179,17 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,57%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,45; 14,54</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1217,7 +1217,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,55; 17,51</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1244,32 +1244,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,76</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,14%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,76%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,77%</t>
         </is>
       </c>
     </row>
@@ -1282,32 +1282,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,17; 5,86</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,98; 0,0</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,5; 0,0</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,22; 6,37</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,98; 0,0</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,5; 0,0</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16B07-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16B07-Provincia-trans_bre.xlsx
@@ -609,7 +609,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-5,58</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -624,7 +624,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,58%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -647,7 +647,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,34; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,34; 0,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -849,7 +849,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,94</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -864,7 +864,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-1,94%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -887,7 +887,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-9,65; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -902,7 +902,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-9,65; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">

--- a/data/trans_bre/P16B07-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16B07-Provincia-trans_bre.xlsx
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-22,37; 0,0</t>
+          <t>-24,92; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-25,34; 0,0</t>
+          <t>-33,46; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-22,37; 0,0</t>
+          <t>-24,92; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-25,34; 0,0</t>
+          <t>-33,46; 0,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -674,7 +674,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -732,7 +732,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-12,15; 0,0</t>
+          <t>-15,36; 0,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -747,14 +747,14 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-12,15; 0,0</t>
+          <t>-15,36; 0,0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -802,7 +802,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-26,51; 0,0</t>
+          <t>-26,58; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -817,7 +817,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-26,51; 0,0</t>
+          <t>-26,58; 0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -962,7 +962,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-21,81; 0,0</t>
+          <t>-21,67; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-21,81; 0,0</t>
+          <t>-21,67; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1047,12 +1047,12 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-22,38; 0,0</t>
+          <t>-21,98; 0,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-20,67; 0,0</t>
+          <t>-17,13; 0,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1062,19 +1062,19 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-22,38; 0,0</t>
+          <t>-21,98; 0,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-20,67; 0,0</t>
+          <t>-17,13; 0,0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-7,45; 14,54</t>
+          <t>-7,32; 14,37</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1217,7 +1217,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-7,55; 17,51</t>
+          <t>-7,33; 17,41</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1282,32 +1282,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 5,86</t>
+          <t>-3,17; 5,97</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 0,0</t>
+          <t>-2,69; 0,0</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 0,0</t>
+          <t>-2,73; 0,0</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 6,37</t>
+          <t>-3,2; 6,4</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 0,0</t>
+          <t>-2,69; 0,0</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 0,0</t>
+          <t>-2,73; 0,0</t>
         </is>
       </c>
     </row>
